--- a/Code/Results/Cases/Case_4_119/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_119/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.6281545385226</v>
+        <v>9.719734031184064</v>
       </c>
       <c r="C2">
-        <v>10.67660025887133</v>
+        <v>6.338110475625068</v>
       </c>
       <c r="D2">
-        <v>7.132877486759684</v>
+        <v>5.997737432143495</v>
       </c>
       <c r="E2">
-        <v>29.43840756250234</v>
+        <v>16.3666063605383</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.27472070430944</v>
+        <v>42.38067966786666</v>
       </c>
       <c r="H2">
-        <v>13.59855700872778</v>
+        <v>17.13778305690583</v>
       </c>
       <c r="I2">
-        <v>21.44417652816478</v>
+        <v>25.16676969106781</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.21593216633002</v>
+        <v>10.26130066688681</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.70693216530975</v>
+        <v>9.461937575043839</v>
       </c>
       <c r="C3">
-        <v>9.921907571122206</v>
+        <v>6.050277162415481</v>
       </c>
       <c r="D3">
-        <v>6.628216622851648</v>
+        <v>5.881881094603054</v>
       </c>
       <c r="E3">
-        <v>27.26073329473832</v>
+        <v>15.44511530997996</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.16741836033291</v>
+        <v>41.85692823163191</v>
       </c>
       <c r="H3">
-        <v>13.30139431366725</v>
+        <v>17.11128556180114</v>
       </c>
       <c r="I3">
-        <v>20.94098210703799</v>
+        <v>25.09955508138161</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.36069919266512</v>
+        <v>10.07635003867921</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.1117956187017</v>
+        <v>9.303349880089117</v>
       </c>
       <c r="C4">
-        <v>9.435806499426089</v>
+        <v>5.868497479506255</v>
       </c>
       <c r="D4">
-        <v>6.302296157147677</v>
+        <v>5.811461299113171</v>
       </c>
       <c r="E4">
-        <v>25.86482908185953</v>
+        <v>14.8556570611034</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>42.8710945938314</v>
+        <v>41.54362538032703</v>
       </c>
       <c r="H4">
-        <v>13.12660328712379</v>
+        <v>17.09815159638737</v>
       </c>
       <c r="I4">
-        <v>20.64402583410428</v>
+        <v>25.06303788995626</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.80981533277913</v>
+        <v>9.96442590369794</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.86176425911423</v>
+        <v>9.238763880175611</v>
       </c>
       <c r="C5">
-        <v>9.231896636861579</v>
+        <v>5.793274114758037</v>
       </c>
       <c r="D5">
-        <v>6.183863865178779</v>
+        <v>5.782987892451319</v>
       </c>
       <c r="E5">
-        <v>25.28076461252228</v>
+        <v>14.60977272385425</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>42.34265874709282</v>
+        <v>41.41816597367848</v>
       </c>
       <c r="H5">
-        <v>13.0572732213907</v>
+        <v>17.09358864705591</v>
       </c>
       <c r="I5">
-        <v>20.52599148155668</v>
+        <v>25.04935580087666</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.57878406485242</v>
+        <v>9.919296313628495</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.81979080747169</v>
+        <v>9.228045278371811</v>
       </c>
       <c r="C6">
-        <v>9.197683070124695</v>
+        <v>5.78071798562221</v>
       </c>
       <c r="D6">
-        <v>6.164482242794323</v>
+        <v>5.778274649123396</v>
       </c>
       <c r="E6">
-        <v>25.18284968829959</v>
+        <v>14.56861009125208</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>42.25491657549038</v>
+        <v>41.39747098839726</v>
       </c>
       <c r="H6">
-        <v>13.04587483927435</v>
+        <v>17.09287865280647</v>
       </c>
       <c r="I6">
-        <v>20.50657061952895</v>
+        <v>25.04715640319368</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.54002488598602</v>
+        <v>9.911833604648832</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.10845412171506</v>
+        <v>9.302478534258773</v>
       </c>
       <c r="C7">
-        <v>9.43308020008158</v>
+        <v>5.86748745944276</v>
       </c>
       <c r="D7">
-        <v>6.300466388221132</v>
+        <v>5.811076335889142</v>
       </c>
       <c r="E7">
-        <v>25.85701436935532</v>
+        <v>14.85236355709098</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>42.86396797531652</v>
+        <v>41.54192425704269</v>
       </c>
       <c r="H7">
-        <v>13.12566062836561</v>
+        <v>17.09808686273232</v>
       </c>
       <c r="I7">
-        <v>20.64242197870757</v>
+        <v>25.06284850993723</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.80672612212388</v>
+        <v>9.963815234247269</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.31658322287048</v>
+        <v>9.630975589730228</v>
       </c>
       <c r="C8">
-        <v>10.42102980832206</v>
+        <v>6.239982276833132</v>
       </c>
       <c r="D8">
-        <v>6.962167098076861</v>
+        <v>5.957667225279609</v>
       </c>
       <c r="E8">
-        <v>28.69947641373248</v>
+        <v>16.05393537092442</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>45.54885872785488</v>
+        <v>42.19845145791776</v>
       </c>
       <c r="H8">
-        <v>13.4944855149452</v>
+        <v>17.12799655310679</v>
       </c>
       <c r="I8">
-        <v>21.26815700820728</v>
+        <v>25.14261027148558</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.92635350362065</v>
+        <v>10.19723145888315</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.456202445918</v>
+        <v>10.26798162196165</v>
       </c>
       <c r="C9">
-        <v>12.18346271243483</v>
+        <v>6.925766823442977</v>
       </c>
       <c r="D9">
-        <v>8.135153026776337</v>
+        <v>6.248944812509253</v>
       </c>
       <c r="E9">
-        <v>33.82872974877517</v>
+        <v>18.25653853013034</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>50.78113086814994</v>
+        <v>43.54562022148843</v>
       </c>
       <c r="H9">
-        <v>14.28011500356251</v>
+        <v>17.2114733983449</v>
       </c>
       <c r="I9">
-        <v>22.59271159091876</v>
+        <v>25.33651921295178</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.92113006461138</v>
+        <v>10.66492333023957</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.89543192953958</v>
+        <v>10.72561598882068</v>
       </c>
       <c r="C10">
-        <v>13.37989515863216</v>
+        <v>7.397188808125008</v>
       </c>
       <c r="D10">
-        <v>8.925194522150303</v>
+        <v>6.462825292422861</v>
       </c>
       <c r="E10">
-        <v>37.36026412242258</v>
+        <v>19.88668104026993</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.59645951110959</v>
+        <v>44.56352712681013</v>
       </c>
       <c r="H10">
-        <v>14.89802182620773</v>
+        <v>17.28783155285596</v>
       </c>
       <c r="I10">
-        <v>23.6293755475618</v>
+        <v>25.50148649833267</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.27054362639891</v>
+        <v>11.01063080371898</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.52318658852629</v>
+        <v>10.93041924948407</v>
       </c>
       <c r="C11">
-        <v>13.90490586189808</v>
+        <v>7.603765392600851</v>
       </c>
       <c r="D11">
-        <v>9.270062844290978</v>
+        <v>6.559606875506117</v>
       </c>
       <c r="E11">
-        <v>38.92437472603979</v>
+        <v>20.58681388573462</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>56.32684563423037</v>
+        <v>45.03091777679401</v>
       </c>
       <c r="H11">
-        <v>15.188787308038</v>
+        <v>17.32579761288815</v>
       </c>
       <c r="I11">
-        <v>24.11607464769989</v>
+        <v>25.58132095522448</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.86093825586651</v>
+        <v>11.1675475373749</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.75719887927856</v>
+        <v>11.00740267345625</v>
       </c>
       <c r="C12">
-        <v>14.10114565589655</v>
+        <v>7.68080182586435</v>
       </c>
       <c r="D12">
-        <v>9.398663099783738</v>
+        <v>6.596143028984638</v>
       </c>
       <c r="E12">
-        <v>39.51144708403986</v>
+        <v>20.84601655382136</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>56.98162218375901</v>
+        <v>45.20838027984539</v>
       </c>
       <c r="H12">
-        <v>15.3003752964881</v>
+        <v>17.34063492466881</v>
       </c>
       <c r="I12">
-        <v>24.30269523378402</v>
+        <v>25.61223060731812</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.08130271619964</v>
+        <v>11.22685375078801</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.70696194177112</v>
+        <v>10.99084960089599</v>
       </c>
       <c r="C13">
-        <v>14.05899277946154</v>
+        <v>7.664264374034051</v>
       </c>
       <c r="D13">
-        <v>9.371053786686751</v>
+        <v>6.588279937588309</v>
       </c>
       <c r="E13">
-        <v>39.38522740270867</v>
+        <v>20.79045547298146</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>56.84061976206727</v>
+        <v>45.17014197757977</v>
       </c>
       <c r="H13">
-        <v>15.27627524841817</v>
+        <v>17.33741904003912</v>
       </c>
       <c r="I13">
-        <v>24.26239730871926</v>
+        <v>25.60554368519461</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.03398287770041</v>
+        <v>11.21408719992606</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.5425121066382</v>
+        <v>10.93676463226868</v>
       </c>
       <c r="C14">
-        <v>13.92110091156339</v>
+        <v>7.610127363197858</v>
       </c>
       <c r="D14">
-        <v>9.280682243726694</v>
+        <v>6.562615206674945</v>
       </c>
       <c r="E14">
-        <v>38.97277268589486</v>
+        <v>20.60825714161747</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>56.3807220453327</v>
+        <v>45.04550913437576</v>
       </c>
       <c r="H14">
-        <v>15.19793742826561</v>
+        <v>17.32700908628997</v>
       </c>
       <c r="I14">
-        <v>24.13138060250158</v>
+        <v>25.58385038649717</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.87913095221112</v>
+        <v>11.17242935551052</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.44130483794569</v>
+        <v>10.90355923613941</v>
       </c>
       <c r="C15">
-        <v>13.83630975705024</v>
+        <v>7.576810416194507</v>
       </c>
       <c r="D15">
-        <v>9.225070397566126</v>
+        <v>6.546878986194431</v>
       </c>
       <c r="E15">
-        <v>38.71948044440737</v>
+        <v>20.49588515298019</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>56.09896930486929</v>
+        <v>44.9692248705509</v>
       </c>
       <c r="H15">
-        <v>15.15014925192442</v>
+        <v>17.32069251281655</v>
       </c>
       <c r="I15">
-        <v>24.05143596364033</v>
+        <v>25.57065058354055</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.78386770593319</v>
+        <v>11.14689590699502</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.85387841297618</v>
+        <v>10.71215618366535</v>
       </c>
       <c r="C16">
-        <v>13.34521341221188</v>
+        <v>7.383524968274828</v>
       </c>
       <c r="D16">
-        <v>8.902372148041348</v>
+        <v>6.456486666452445</v>
       </c>
       <c r="E16">
-        <v>37.25726436698474</v>
+        <v>19.84009506517228</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>54.48328874458612</v>
+        <v>44.53305632909887</v>
       </c>
       <c r="H16">
-        <v>14.87922149600064</v>
+        <v>17.28541504442726</v>
       </c>
       <c r="I16">
-        <v>23.59788425249105</v>
+        <v>25.49636462432182</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.23150168745581</v>
+        <v>11.00036333039968</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.48672226490439</v>
+        <v>10.59380852524149</v>
       </c>
       <c r="C17">
-        <v>13.0391436747125</v>
+        <v>7.262889821357295</v>
       </c>
       <c r="D17">
-        <v>8.700751176184648</v>
+        <v>6.400873910768332</v>
       </c>
       <c r="E17">
-        <v>36.34996385922836</v>
+        <v>19.42720337214358</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>53.49092209166263</v>
+        <v>44.26648383711328</v>
       </c>
       <c r="H17">
-        <v>14.71555136944716</v>
+        <v>17.26459807432017</v>
       </c>
       <c r="I17">
-        <v>23.32360730303652</v>
+        <v>25.45201214871608</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.88674625791462</v>
+        <v>10.91033435338694</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.27299486656133</v>
+        <v>10.52542488042343</v>
       </c>
       <c r="C18">
-        <v>12.86127505843574</v>
+        <v>7.19276516188804</v>
       </c>
       <c r="D18">
-        <v>8.583410668913434</v>
+        <v>6.368840786295917</v>
       </c>
       <c r="E18">
-        <v>35.82405801845196</v>
+        <v>19.18581760584146</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>52.91962135470458</v>
+        <v>44.11357592045924</v>
       </c>
       <c r="H18">
-        <v>14.62231683044242</v>
+        <v>17.25292904417333</v>
       </c>
       <c r="I18">
-        <v>23.16726245252316</v>
+        <v>25.42695334865465</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.68623234990754</v>
+        <v>10.85852307613733</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.20018778018429</v>
+        <v>10.50222028654717</v>
       </c>
       <c r="C19">
-        <v>12.80073266638732</v>
+        <v>7.168897211009694</v>
       </c>
       <c r="D19">
-        <v>8.543442573325667</v>
+        <v>6.357988219198734</v>
       </c>
       <c r="E19">
-        <v>35.64527510088141</v>
+        <v>19.1034174053626</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>52.72609431349584</v>
+        <v>44.06188029862092</v>
       </c>
       <c r="H19">
-        <v>14.59090214356733</v>
+        <v>17.249030498226</v>
       </c>
       <c r="I19">
-        <v>23.11456550319011</v>
+        <v>25.41854673603532</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.61795582475163</v>
+        <v>10.8409777110257</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.52606928878867</v>
+        <v>10.60643989357185</v>
       </c>
       <c r="C20">
-        <v>13.07191288997209</v>
+        <v>7.275808515214487</v>
       </c>
       <c r="D20">
-        <v>8.722355566336468</v>
+        <v>6.40679904797121</v>
       </c>
       <c r="E20">
-        <v>36.446960850133</v>
+        <v>19.47155992309255</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.59661337273531</v>
+        <v>44.294818828826</v>
       </c>
       <c r="H20">
-        <v>14.73288017622115</v>
+        <v>17.26678260653501</v>
       </c>
       <c r="I20">
-        <v>23.35265749330213</v>
+        <v>25.45668688406138</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.9236746531047</v>
+        <v>10.91992157099377</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.59091407664172</v>
+        <v>10.95266684420996</v>
       </c>
       <c r="C21">
-        <v>13.96167114266284</v>
+        <v>7.626061412008545</v>
       </c>
       <c r="D21">
-        <v>9.307279860912937</v>
+        <v>6.570156926426961</v>
       </c>
       <c r="E21">
-        <v>39.09405471325435</v>
+        <v>20.66193366576245</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.51581529606653</v>
+        <v>45.0821052222431</v>
       </c>
       <c r="H21">
-        <v>15.220906103357</v>
+        <v>17.3300542829904</v>
       </c>
       <c r="I21">
-        <v>24.16979911555373</v>
+        <v>25.59020392216459</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.92470023306337</v>
+        <v>11.18466889004744</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.26535393962162</v>
+        <v>11.17558266976858</v>
       </c>
       <c r="C22">
-        <v>14.52830981945618</v>
+        <v>7.848017522988543</v>
       </c>
       <c r="D22">
-        <v>9.677991904980699</v>
+        <v>6.676245834407564</v>
       </c>
       <c r="E22">
-        <v>40.79415431281622</v>
+        <v>21.40540715340152</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.42111369163619</v>
+        <v>45.59932315677695</v>
       </c>
       <c r="H22">
-        <v>15.54855426459205</v>
+        <v>17.37408716179697</v>
       </c>
       <c r="I22">
-        <v>24.71745878694344</v>
+        <v>25.68141164847878</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.56034367799511</v>
+        <v>11.35699983972689</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.90729698497782</v>
+        <v>11.05694243328055</v>
       </c>
       <c r="C23">
-        <v>14.22717196508582</v>
+        <v>7.730208264249273</v>
       </c>
       <c r="D23">
-        <v>9.481160305434207</v>
+        <v>6.619698315309669</v>
       </c>
       <c r="E23">
-        <v>39.88919129927173</v>
+        <v>21.01174710722376</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>57.40432216956918</v>
+        <v>45.32307875968179</v>
       </c>
       <c r="H23">
-        <v>15.37285040006438</v>
+        <v>17.35034216972701</v>
       </c>
       <c r="I23">
-        <v>24.42385834348172</v>
+        <v>25.63237506956685</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.22272670530016</v>
+        <v>11.26510794167082</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.50828874879878</v>
+        <v>10.60073031683528</v>
       </c>
       <c r="C24">
-        <v>13.05710387614175</v>
+        <v>7.269970367398872</v>
       </c>
       <c r="D24">
-        <v>8.712592670005455</v>
+        <v>6.404120479262844</v>
       </c>
       <c r="E24">
-        <v>36.40312192665404</v>
+        <v>19.45151881612521</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>53.54883277950413</v>
+        <v>44.282007482904</v>
       </c>
       <c r="H24">
-        <v>14.72504314547391</v>
+        <v>17.26579404803737</v>
       </c>
       <c r="I24">
-        <v>23.33951973693086</v>
+        <v>25.45457206469583</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.90698653133269</v>
+        <v>10.91558734820281</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.9012581662387</v>
+        <v>10.09706787748221</v>
       </c>
       <c r="C25">
-        <v>11.72460947294352</v>
+        <v>6.745613349238916</v>
       </c>
       <c r="D25">
-        <v>7.830755440852208</v>
+        <v>6.169995430674483</v>
       </c>
       <c r="E25">
-        <v>32.48546649627784</v>
+        <v>17.65112784128387</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>49.37056698892822</v>
+        <v>43.17562627590854</v>
       </c>
       <c r="H25">
-        <v>14.0606614762413</v>
+        <v>17.18624168711098</v>
       </c>
       <c r="I25">
-        <v>22.22358483729719</v>
+        <v>25.28007960135419</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.40240600026521</v>
+        <v>10.53775034334967</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_119/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_119/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.719734031184064</v>
+        <v>13.62815453852253</v>
       </c>
       <c r="C2">
-        <v>6.338110475625068</v>
+        <v>10.67660025887127</v>
       </c>
       <c r="D2">
-        <v>5.997737432143495</v>
+        <v>7.132877486759686</v>
       </c>
       <c r="E2">
-        <v>16.3666063605383</v>
+        <v>29.43840756250232</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>42.38067966786666</v>
+        <v>46.27472070430971</v>
       </c>
       <c r="H2">
-        <v>17.13778305690583</v>
+        <v>13.59855700872789</v>
       </c>
       <c r="I2">
-        <v>25.16676969106781</v>
+        <v>21.44417652816495</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.26130066688681</v>
+        <v>13.21593216632994</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.461937575043839</v>
+        <v>12.70693216530991</v>
       </c>
       <c r="C3">
-        <v>6.050277162415481</v>
+        <v>9.921907571122333</v>
       </c>
       <c r="D3">
-        <v>5.881881094603054</v>
+        <v>6.6282166228516</v>
       </c>
       <c r="E3">
-        <v>15.44511530997996</v>
+        <v>27.26073329473828</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>41.85692823163191</v>
+        <v>44.1674183603329</v>
       </c>
       <c r="H3">
-        <v>17.11128556180114</v>
+        <v>13.30139431366714</v>
       </c>
       <c r="I3">
-        <v>25.09955508138161</v>
+        <v>20.94098210703785</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.07635003867921</v>
+        <v>12.36069919266526</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.303349880089117</v>
+        <v>12.11179561870163</v>
       </c>
       <c r="C4">
-        <v>5.868497479506255</v>
+        <v>9.435806499425858</v>
       </c>
       <c r="D4">
-        <v>5.811461299113171</v>
+        <v>6.302296157147744</v>
       </c>
       <c r="E4">
-        <v>14.8556570611034</v>
+        <v>25.86482908185949</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.54362538032703</v>
+        <v>42.87109459383166</v>
       </c>
       <c r="H4">
-        <v>17.09815159638737</v>
+        <v>13.12660328712396</v>
       </c>
       <c r="I4">
-        <v>25.06303788995626</v>
+        <v>20.64402583410441</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.96442590369794</v>
+        <v>11.80981533277903</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.238763880175611</v>
+        <v>11.8617642591142</v>
       </c>
       <c r="C5">
-        <v>5.793274114758037</v>
+        <v>9.231896636861414</v>
       </c>
       <c r="D5">
-        <v>5.782987892451319</v>
+        <v>6.183863865178738</v>
       </c>
       <c r="E5">
-        <v>14.60977272385425</v>
+        <v>25.28076461252233</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>41.41816597367848</v>
+        <v>42.34265874709313</v>
       </c>
       <c r="H5">
-        <v>17.09358864705591</v>
+        <v>13.05727322139072</v>
       </c>
       <c r="I5">
-        <v>25.04935580087666</v>
+        <v>20.5259914815567</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.919296313628495</v>
+        <v>11.57878406485238</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.228045278371811</v>
+        <v>11.81979080747154</v>
       </c>
       <c r="C6">
-        <v>5.78071798562221</v>
+        <v>9.197683070124722</v>
       </c>
       <c r="D6">
-        <v>5.778274649123396</v>
+        <v>6.164482242794325</v>
       </c>
       <c r="E6">
-        <v>14.56861009125208</v>
+        <v>25.18284968829951</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>41.39747098839726</v>
+        <v>42.25491657549057</v>
       </c>
       <c r="H6">
-        <v>17.09287865280647</v>
+        <v>13.04587483927452</v>
       </c>
       <c r="I6">
-        <v>25.04715640319368</v>
+        <v>20.50657061952921</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.911833604648832</v>
+        <v>11.54002488598596</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.302478534258773</v>
+        <v>12.10845412171514</v>
       </c>
       <c r="C7">
-        <v>5.86748745944276</v>
+        <v>9.433080200081571</v>
       </c>
       <c r="D7">
-        <v>5.811076335889142</v>
+        <v>6.300466388221157</v>
       </c>
       <c r="E7">
-        <v>14.85236355709098</v>
+        <v>25.85701436935529</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>41.54192425704269</v>
+        <v>42.86396797531649</v>
       </c>
       <c r="H7">
-        <v>17.09808686273232</v>
+        <v>13.12566062836559</v>
       </c>
       <c r="I7">
-        <v>25.06284850993723</v>
+        <v>20.64242197870753</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.963815234247269</v>
+        <v>11.80672612212396</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.630975589730228</v>
+        <v>13.3165832228705</v>
       </c>
       <c r="C8">
-        <v>6.239982276833132</v>
+        <v>10.42102980832199</v>
       </c>
       <c r="D8">
-        <v>5.957667225279609</v>
+        <v>6.962167098076831</v>
       </c>
       <c r="E8">
-        <v>16.05393537092442</v>
+        <v>28.69947641373253</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>42.19845145791776</v>
+        <v>45.54885872785519</v>
       </c>
       <c r="H8">
-        <v>17.12799655310679</v>
+        <v>13.49448551494526</v>
       </c>
       <c r="I8">
-        <v>25.14261027148558</v>
+        <v>21.26815700820737</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.19723145888315</v>
+        <v>12.92635350362062</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.26798162196165</v>
+        <v>15.45620244591793</v>
       </c>
       <c r="C9">
-        <v>6.925766823442977</v>
+        <v>12.18346271243482</v>
       </c>
       <c r="D9">
-        <v>6.248944812509253</v>
+        <v>8.135153026776214</v>
       </c>
       <c r="E9">
-        <v>18.25653853013034</v>
+        <v>33.82872974877509</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>43.54562022148843</v>
+        <v>50.7811308681501</v>
       </c>
       <c r="H9">
-        <v>17.2114733983449</v>
+        <v>14.28011500356262</v>
       </c>
       <c r="I9">
-        <v>25.33651921295178</v>
+        <v>22.59271159091888</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.66492333023957</v>
+        <v>14.92113006461134</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.72561598882068</v>
+        <v>16.89543192953954</v>
       </c>
       <c r="C10">
-        <v>7.397188808125008</v>
+        <v>13.37989515863194</v>
       </c>
       <c r="D10">
-        <v>6.462825292422861</v>
+        <v>8.925194522150319</v>
       </c>
       <c r="E10">
-        <v>19.88668104026993</v>
+        <v>37.36026412242243</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>44.56352712681013</v>
+        <v>54.59645951110965</v>
       </c>
       <c r="H10">
-        <v>17.28783155285596</v>
+        <v>14.89802182620781</v>
       </c>
       <c r="I10">
-        <v>25.50148649833267</v>
+        <v>23.62937554756191</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.01063080371898</v>
+        <v>16.27054362639879</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.93041924948407</v>
+        <v>17.52318658852626</v>
       </c>
       <c r="C11">
-        <v>7.603765392600851</v>
+        <v>13.90490586189803</v>
       </c>
       <c r="D11">
-        <v>6.559606875506117</v>
+        <v>9.270062844291086</v>
       </c>
       <c r="E11">
-        <v>20.58681388573462</v>
+        <v>38.92437472603959</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.03091777679401</v>
+        <v>56.32684563423017</v>
       </c>
       <c r="H11">
-        <v>17.32579761288815</v>
+        <v>15.18878730803804</v>
       </c>
       <c r="I11">
-        <v>25.58132095522448</v>
+        <v>24.11607464769995</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.1675475373749</v>
+        <v>16.86093825586644</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.00740267345625</v>
+        <v>17.75719887927858</v>
       </c>
       <c r="C12">
-        <v>7.68080182586435</v>
+        <v>14.10114565589652</v>
       </c>
       <c r="D12">
-        <v>6.596143028984638</v>
+        <v>9.398663099783704</v>
       </c>
       <c r="E12">
-        <v>20.84601655382136</v>
+        <v>39.51144708403989</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.20838027984539</v>
+        <v>56.98162218375893</v>
       </c>
       <c r="H12">
-        <v>17.34063492466881</v>
+        <v>15.30037529648811</v>
       </c>
       <c r="I12">
-        <v>25.61223060731812</v>
+        <v>24.30269523378402</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.22685375078801</v>
+        <v>17.08130271619965</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.99084960089599</v>
+        <v>17.70696194177113</v>
       </c>
       <c r="C13">
-        <v>7.664264374034051</v>
+        <v>14.05899277946152</v>
       </c>
       <c r="D13">
-        <v>6.588279937588309</v>
+        <v>9.371053786686646</v>
       </c>
       <c r="E13">
-        <v>20.79045547298146</v>
+        <v>39.38522740270874</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.17014197757977</v>
+        <v>56.84061976206741</v>
       </c>
       <c r="H13">
-        <v>17.33741904003912</v>
+        <v>15.27627524841819</v>
       </c>
       <c r="I13">
-        <v>25.60554368519461</v>
+        <v>24.26239730871933</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.21408719992606</v>
+        <v>17.03398287770042</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.93676463226868</v>
+        <v>17.54251210663834</v>
       </c>
       <c r="C14">
-        <v>7.610127363197858</v>
+        <v>13.92110091156323</v>
       </c>
       <c r="D14">
-        <v>6.562615206674945</v>
+        <v>9.280682243726716</v>
       </c>
       <c r="E14">
-        <v>20.60825714161747</v>
+        <v>38.97277268589485</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.04550913437576</v>
+        <v>56.38072204533299</v>
       </c>
       <c r="H14">
-        <v>17.32700908628997</v>
+        <v>15.19793742826564</v>
       </c>
       <c r="I14">
-        <v>25.58385038649717</v>
+        <v>24.13138060250161</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.17242935551052</v>
+        <v>16.87913095221117</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.90355923613941</v>
+        <v>17.44130483794568</v>
       </c>
       <c r="C15">
-        <v>7.576810416194507</v>
+        <v>13.83630975705022</v>
       </c>
       <c r="D15">
-        <v>6.546878986194431</v>
+        <v>9.225070397566117</v>
       </c>
       <c r="E15">
-        <v>20.49588515298019</v>
+        <v>38.71948044440741</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.9692248705509</v>
+        <v>56.09896930486945</v>
       </c>
       <c r="H15">
-        <v>17.32069251281655</v>
+        <v>15.15014925192451</v>
       </c>
       <c r="I15">
-        <v>25.57065058354055</v>
+        <v>24.05143596364043</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.14689590699502</v>
+        <v>16.78386770593319</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.71215618366535</v>
+        <v>16.85387841297628</v>
       </c>
       <c r="C16">
-        <v>7.383524968274828</v>
+        <v>13.34521341221179</v>
       </c>
       <c r="D16">
-        <v>6.456486666452445</v>
+        <v>8.902372148041305</v>
       </c>
       <c r="E16">
-        <v>19.84009506517228</v>
+        <v>37.25726436698489</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>44.53305632909887</v>
+        <v>54.48328874458611</v>
       </c>
       <c r="H16">
-        <v>17.28541504442726</v>
+        <v>14.87922149600059</v>
       </c>
       <c r="I16">
-        <v>25.49636462432182</v>
+        <v>23.59788425249096</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.00036333039968</v>
+        <v>16.23150168745586</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.59380852524149</v>
+        <v>16.48672226490446</v>
       </c>
       <c r="C17">
-        <v>7.262889821357295</v>
+        <v>13.03914367471264</v>
       </c>
       <c r="D17">
-        <v>6.400873910768332</v>
+        <v>8.70075117618458</v>
       </c>
       <c r="E17">
-        <v>19.42720337214358</v>
+        <v>36.34996385922841</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>44.26648383711328</v>
+        <v>53.4909220916627</v>
       </c>
       <c r="H17">
-        <v>17.26459807432017</v>
+        <v>14.71555136944715</v>
       </c>
       <c r="I17">
-        <v>25.45201214871608</v>
+        <v>23.32360730303652</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.91033435338694</v>
+        <v>15.88674625791467</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.52542488042343</v>
+        <v>16.27299486656135</v>
       </c>
       <c r="C18">
-        <v>7.19276516188804</v>
+        <v>12.86127505843576</v>
       </c>
       <c r="D18">
-        <v>6.368840786295917</v>
+        <v>8.583410668913443</v>
       </c>
       <c r="E18">
-        <v>19.18581760584146</v>
+        <v>35.82405801845191</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>44.11357592045924</v>
+        <v>52.91962135470464</v>
       </c>
       <c r="H18">
-        <v>17.25292904417333</v>
+        <v>14.62231683044244</v>
       </c>
       <c r="I18">
-        <v>25.42695334865465</v>
+        <v>23.16726245252318</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.85852307613733</v>
+        <v>15.68623234990755</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.50222028654717</v>
+        <v>16.2001877801842</v>
       </c>
       <c r="C19">
-        <v>7.168897211009694</v>
+        <v>12.80073266638731</v>
       </c>
       <c r="D19">
-        <v>6.357988219198734</v>
+        <v>8.543442573325628</v>
       </c>
       <c r="E19">
-        <v>19.1034174053626</v>
+        <v>35.64527510088124</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>44.06188029862092</v>
+        <v>52.72609431349589</v>
       </c>
       <c r="H19">
-        <v>17.249030498226</v>
+        <v>14.59090214356742</v>
       </c>
       <c r="I19">
-        <v>25.41854673603532</v>
+        <v>23.11456550319024</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.8409777110257</v>
+        <v>15.61795582475157</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.60643989357185</v>
+        <v>16.52606928878872</v>
       </c>
       <c r="C20">
-        <v>7.275808515214487</v>
+        <v>13.07191288997202</v>
       </c>
       <c r="D20">
-        <v>6.40679904797121</v>
+        <v>8.722355566336462</v>
       </c>
       <c r="E20">
-        <v>19.47155992309255</v>
+        <v>36.44696085013306</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>44.294818828826</v>
+        <v>53.59661337273551</v>
       </c>
       <c r="H20">
-        <v>17.26678260653501</v>
+        <v>14.73288017622128</v>
       </c>
       <c r="I20">
-        <v>25.45668688406138</v>
+        <v>23.35265749330222</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.91992157099377</v>
+        <v>15.92367465310469</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.95266684420996</v>
+        <v>17.59091407664177</v>
       </c>
       <c r="C21">
-        <v>7.626061412008545</v>
+        <v>13.96167114266279</v>
       </c>
       <c r="D21">
-        <v>6.570156926426961</v>
+        <v>9.307279860912937</v>
       </c>
       <c r="E21">
-        <v>20.66193366576245</v>
+        <v>39.0940547132544</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.0821052222431</v>
+        <v>56.51581529606668</v>
       </c>
       <c r="H21">
-        <v>17.3300542829904</v>
+        <v>15.22090610335698</v>
       </c>
       <c r="I21">
-        <v>25.59020392216459</v>
+        <v>24.16979911555369</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.18466889004744</v>
+        <v>16.92470023306338</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.17558266976858</v>
+        <v>18.26535393962164</v>
       </c>
       <c r="C22">
-        <v>7.848017522988543</v>
+        <v>14.52830981945602</v>
       </c>
       <c r="D22">
-        <v>6.676245834407564</v>
+        <v>9.677991904980637</v>
       </c>
       <c r="E22">
-        <v>21.40540715340152</v>
+        <v>40.79415431281614</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.59932315677695</v>
+        <v>58.42111369163626</v>
       </c>
       <c r="H22">
-        <v>17.37408716179697</v>
+        <v>15.54855426459204</v>
       </c>
       <c r="I22">
-        <v>25.68141164847878</v>
+        <v>24.71745878694348</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.35699983972689</v>
+        <v>17.56034367799503</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.05694243328055</v>
+        <v>17.90729698497771</v>
       </c>
       <c r="C23">
-        <v>7.730208264249273</v>
+        <v>14.22717196508562</v>
       </c>
       <c r="D23">
-        <v>6.619698315309669</v>
+        <v>9.481160305434146</v>
       </c>
       <c r="E23">
-        <v>21.01174710722376</v>
+        <v>39.88919129927159</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.32307875968179</v>
+        <v>57.40432216956918</v>
       </c>
       <c r="H23">
-        <v>17.35034216972701</v>
+        <v>15.37285040006447</v>
       </c>
       <c r="I23">
-        <v>25.63237506956685</v>
+        <v>24.42385834348182</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.26510794167082</v>
+        <v>17.22272670530007</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.60073031683528</v>
+        <v>16.50828874879878</v>
       </c>
       <c r="C24">
-        <v>7.269970367398872</v>
+        <v>13.05710387614153</v>
       </c>
       <c r="D24">
-        <v>6.404120479262844</v>
+        <v>8.712592670005451</v>
       </c>
       <c r="E24">
-        <v>19.45151881612521</v>
+        <v>36.40312192665399</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>44.282007482904</v>
+        <v>53.54883277950423</v>
       </c>
       <c r="H24">
-        <v>17.26579404803737</v>
+        <v>14.72504314547396</v>
       </c>
       <c r="I24">
-        <v>25.45457206469583</v>
+        <v>23.33951973693091</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.91558734820281</v>
+        <v>15.90698653133259</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.09706787748221</v>
+        <v>14.9012581662388</v>
       </c>
       <c r="C25">
-        <v>6.745613349238916</v>
+        <v>11.72460947294366</v>
       </c>
       <c r="D25">
-        <v>6.169995430674483</v>
+        <v>7.830755440852095</v>
       </c>
       <c r="E25">
-        <v>17.65112784128387</v>
+        <v>32.4854664962779</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>43.17562627590854</v>
+        <v>49.37056698892827</v>
       </c>
       <c r="H25">
-        <v>17.18624168711098</v>
+        <v>14.06066147624123</v>
       </c>
       <c r="I25">
-        <v>25.28007960135419</v>
+        <v>22.22358483729715</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.53775034334967</v>
+        <v>14.40240600026534</v>
       </c>
       <c r="L25">
         <v>0</v>
